--- a/data/pca/factorExposure/factorExposure_2013-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1.632971972560097e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001878206555570764</v>
+      </c>
+      <c r="C2">
+        <v>0.03223971795249601</v>
+      </c>
+      <c r="D2">
+        <v>-0.007409768670573105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002004056234927603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006073631997103804</v>
+      </c>
+      <c r="C4">
+        <v>0.08605418432988136</v>
+      </c>
+      <c r="D4">
+        <v>-0.07720097061563429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0009357496383220584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01337393165389941</v>
+      </c>
+      <c r="C6">
+        <v>0.109295122476612</v>
+      </c>
+      <c r="D6">
+        <v>-0.03428004897194791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002045375279292775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004646977834505186</v>
+      </c>
+      <c r="C7">
+        <v>0.05520316176803509</v>
+      </c>
+      <c r="D7">
+        <v>-0.03328513127044816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001232710367289079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005595420750370904</v>
+      </c>
+      <c r="C8">
+        <v>0.03706317982745181</v>
+      </c>
+      <c r="D8">
+        <v>-0.03831514520424278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004076500029538669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004105405221543834</v>
+      </c>
+      <c r="C9">
+        <v>0.07033038811202696</v>
+      </c>
+      <c r="D9">
+        <v>-0.0721472270101253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004443667402749833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005478813508207208</v>
+      </c>
+      <c r="C10">
+        <v>0.06792493088405056</v>
+      </c>
+      <c r="D10">
+        <v>0.2083713772218228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003528581616497467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005313122422029836</v>
+      </c>
+      <c r="C11">
+        <v>0.07963065421532674</v>
+      </c>
+      <c r="D11">
+        <v>-0.06408761726824409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001217032510798909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003933980655898785</v>
+      </c>
+      <c r="C12">
+        <v>0.06391748176730865</v>
+      </c>
+      <c r="D12">
+        <v>-0.04780927301248634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003064320880237675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008451646577239508</v>
+      </c>
+      <c r="C13">
+        <v>0.06596483405849288</v>
+      </c>
+      <c r="D13">
+        <v>-0.06670364506258854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.00169034698218853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001435014065520135</v>
+      </c>
+      <c r="C14">
+        <v>0.04650952325710822</v>
+      </c>
+      <c r="D14">
+        <v>-0.01149312268597272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001007166542231381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005871863320199801</v>
+      </c>
+      <c r="C15">
+        <v>0.0418850775304835</v>
+      </c>
+      <c r="D15">
+        <v>-0.0315706846926336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001729194035877882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004873874750109287</v>
+      </c>
+      <c r="C16">
+        <v>0.06593149514105581</v>
+      </c>
+      <c r="D16">
+        <v>-0.04751426128990584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002194884398709875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00881817557550634</v>
+      </c>
+      <c r="C20">
+        <v>0.06623862967020096</v>
+      </c>
+      <c r="D20">
+        <v>-0.05218253949507436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.004943413681190077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009848246370754531</v>
+      </c>
+      <c r="C21">
+        <v>0.0233658806658806</v>
+      </c>
+      <c r="D21">
+        <v>-0.03502925669034113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01666386572508045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007002909899847958</v>
+      </c>
+      <c r="C22">
+        <v>0.09400452529394403</v>
+      </c>
+      <c r="D22">
+        <v>-0.1030595114793912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01698737255935759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006818328237601885</v>
+      </c>
+      <c r="C23">
+        <v>0.09483031585747628</v>
+      </c>
+      <c r="D23">
+        <v>-0.1035459930736507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002273114664166955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004894611051179477</v>
+      </c>
+      <c r="C24">
+        <v>0.07413106160582868</v>
+      </c>
+      <c r="D24">
+        <v>-0.06030654618907396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004271905238018145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002676411602897314</v>
+      </c>
+      <c r="C25">
+        <v>0.07754062687514782</v>
+      </c>
+      <c r="D25">
+        <v>-0.06641565398937063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006329683741311604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003652642753952393</v>
+      </c>
+      <c r="C26">
+        <v>0.04289631492704782</v>
+      </c>
+      <c r="D26">
+        <v>-0.02806721926114555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00543081467291828</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0006836501501667846</v>
+      </c>
+      <c r="C28">
+        <v>0.1170054742986814</v>
+      </c>
+      <c r="D28">
+        <v>0.3123790328105664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001505935500027986</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003057561597743009</v>
+      </c>
+      <c r="C29">
+        <v>0.05000642870856976</v>
+      </c>
+      <c r="D29">
+        <v>-0.007265684131228106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003898724213247836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008695790831164394</v>
+      </c>
+      <c r="C30">
+        <v>0.1405643046987734</v>
+      </c>
+      <c r="D30">
+        <v>-0.1022489151069069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001611401968410328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006090094460915577</v>
+      </c>
+      <c r="C31">
+        <v>0.04589648253178712</v>
+      </c>
+      <c r="D31">
+        <v>-0.03192701837093481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009719031611677223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003994151319698872</v>
+      </c>
+      <c r="C32">
+        <v>0.03965673591082587</v>
+      </c>
+      <c r="D32">
+        <v>-0.02019624974686013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003365173923837705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007893387179147789</v>
+      </c>
+      <c r="C33">
+        <v>0.08473845619568121</v>
+      </c>
+      <c r="D33">
+        <v>-0.07519448086409625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004721150023013301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003749495507939944</v>
+      </c>
+      <c r="C34">
+        <v>0.05757124121590611</v>
+      </c>
+      <c r="D34">
+        <v>-0.04770798047542505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002816777094775644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004733945017099354</v>
+      </c>
+      <c r="C35">
+        <v>0.03951926170757125</v>
+      </c>
+      <c r="D35">
+        <v>-0.01347353789196999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004181575946768529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001404520197720088</v>
+      </c>
+      <c r="C36">
+        <v>0.0246921081580132</v>
+      </c>
+      <c r="D36">
+        <v>-0.0220388148961912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002037415440347905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009457306259281617</v>
+      </c>
+      <c r="C38">
+        <v>0.03444917346670145</v>
+      </c>
+      <c r="D38">
+        <v>-0.02136755046766038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01333829836246209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.000997228344015581</v>
+      </c>
+      <c r="C39">
+        <v>0.1171622986861337</v>
+      </c>
+      <c r="D39">
+        <v>-0.07873483591728531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.00969768920115777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001857442068425421</v>
+      </c>
+      <c r="C40">
+        <v>0.08604590629580063</v>
+      </c>
+      <c r="D40">
+        <v>-0.01778541774384211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004468281130126151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007219513514992333</v>
+      </c>
+      <c r="C41">
+        <v>0.03846202787923551</v>
+      </c>
+      <c r="D41">
+        <v>-0.03530621863844253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003285558158478827</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003497873438791595</v>
+      </c>
+      <c r="C43">
+        <v>0.05120469699782315</v>
+      </c>
+      <c r="D43">
+        <v>-0.02527349959298555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002946066080079425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003391813185698009</v>
+      </c>
+      <c r="C44">
+        <v>0.1122832012503538</v>
+      </c>
+      <c r="D44">
+        <v>-0.0766452033408692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001902304337142048</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00227857491020639</v>
+      </c>
+      <c r="C46">
+        <v>0.03524312255658412</v>
+      </c>
+      <c r="D46">
+        <v>-0.02967561684986822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008189567801160501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002664449925255998</v>
+      </c>
+      <c r="C47">
+        <v>0.0380399456523584</v>
+      </c>
+      <c r="D47">
+        <v>-0.02427816327328555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003140305264836962</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006319967237907236</v>
+      </c>
+      <c r="C48">
+        <v>0.02875734655966793</v>
+      </c>
+      <c r="D48">
+        <v>-0.03425013567481043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01460738345325726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01435386935709109</v>
+      </c>
+      <c r="C49">
+        <v>0.1765367272491077</v>
+      </c>
+      <c r="D49">
+        <v>-0.0207222487263523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001362181190064142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00349160191433572</v>
+      </c>
+      <c r="C50">
+        <v>0.04365461395478306</v>
+      </c>
+      <c r="D50">
+        <v>-0.03595708376059997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001248764725320468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004233999184403744</v>
+      </c>
+      <c r="C51">
+        <v>0.02195363056694358</v>
+      </c>
+      <c r="D51">
+        <v>-0.03125257535203722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0002067854473335219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02004470266818827</v>
+      </c>
+      <c r="C53">
+        <v>0.1682894523545417</v>
+      </c>
+      <c r="D53">
+        <v>-0.04273474676184238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007635715135152518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00861632672526369</v>
+      </c>
+      <c r="C54">
+        <v>0.05621848132207108</v>
+      </c>
+      <c r="D54">
+        <v>-0.04104575343611083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004117240296708159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009115930006796391</v>
+      </c>
+      <c r="C55">
+        <v>0.107148218307073</v>
+      </c>
+      <c r="D55">
+        <v>-0.05053256137842714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002723630963777738</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01956254586640398</v>
+      </c>
+      <c r="C56">
+        <v>0.175151384602868</v>
+      </c>
+      <c r="D56">
+        <v>-0.04128478024778511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007915013545663575</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01924360701736889</v>
+      </c>
+      <c r="C58">
+        <v>0.1062632611660892</v>
+      </c>
+      <c r="D58">
+        <v>-0.05995355887832703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006818898164197412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009223502013459414</v>
+      </c>
+      <c r="C59">
+        <v>0.1642454262417152</v>
+      </c>
+      <c r="D59">
+        <v>0.2923655300394976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004704238810785353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02319917337205105</v>
+      </c>
+      <c r="C60">
+        <v>0.2226347624661522</v>
+      </c>
+      <c r="D60">
+        <v>-0.02658141420625523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01511092463919858</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002094859934267822</v>
+      </c>
+      <c r="C61">
+        <v>0.09492952009109322</v>
+      </c>
+      <c r="D61">
+        <v>-0.06083242346926539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1705390095443022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.143760403209787</v>
+      </c>
+      <c r="C62">
+        <v>0.08373874315863321</v>
+      </c>
+      <c r="D62">
+        <v>-0.05063849794439679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00166418053175285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006392203011089779</v>
+      </c>
+      <c r="C63">
+        <v>0.06045897768682112</v>
+      </c>
+      <c r="D63">
+        <v>-0.02347756112417772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00566776128741135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01476230310498881</v>
+      </c>
+      <c r="C64">
+        <v>0.1036696138907938</v>
+      </c>
+      <c r="D64">
+        <v>-0.06252866275662351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001586155370596481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01702054356992004</v>
+      </c>
+      <c r="C65">
+        <v>0.1174950448726006</v>
+      </c>
+      <c r="D65">
+        <v>-0.02007595076267845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008788335175284641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01229750648762138</v>
+      </c>
+      <c r="C66">
+        <v>0.1577240180660454</v>
+      </c>
+      <c r="D66">
+        <v>-0.1192497897919651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003387152729754515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01554056719811705</v>
+      </c>
+      <c r="C67">
+        <v>0.06492426204236786</v>
+      </c>
+      <c r="D67">
+        <v>-0.03119848420527228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006590080882275814</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008584613430175103</v>
+      </c>
+      <c r="C68">
+        <v>0.09738760307618316</v>
+      </c>
+      <c r="D68">
+        <v>0.2590206778228067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002946265559201423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.0057837160322502</v>
+      </c>
+      <c r="C69">
+        <v>0.04958586401810923</v>
+      </c>
+      <c r="D69">
+        <v>-0.04164957616414461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>1.280889543092554e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001757776062194895</v>
+      </c>
+      <c r="C70">
+        <v>0.002167998291656931</v>
+      </c>
+      <c r="D70">
+        <v>-0.001952574839962968</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001483873681462983</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005992295884935891</v>
+      </c>
+      <c r="C71">
+        <v>0.1041929810942289</v>
+      </c>
+      <c r="D71">
+        <v>0.2891545882046559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005717863830211667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01530791400791417</v>
+      </c>
+      <c r="C72">
+        <v>0.1490249998063278</v>
+      </c>
+      <c r="D72">
+        <v>-0.02314487358280596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01187190414764403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02902547269657222</v>
+      </c>
+      <c r="C73">
+        <v>0.2783258457203898</v>
+      </c>
+      <c r="D73">
+        <v>-0.04598502220379723</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005001727217292721</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001174211510867724</v>
+      </c>
+      <c r="C74">
+        <v>0.1038966622046483</v>
+      </c>
+      <c r="D74">
+        <v>-0.04513992465999345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004014350406831076</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01063483250575448</v>
+      </c>
+      <c r="C75">
+        <v>0.1315582787705911</v>
+      </c>
+      <c r="D75">
+        <v>-0.026868198286873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009149546338599112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02107430547257896</v>
+      </c>
+      <c r="C76">
+        <v>0.1498581772042316</v>
+      </c>
+      <c r="D76">
+        <v>-0.06715604422198473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>9.249136921620347e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02408166109825009</v>
+      </c>
+      <c r="C77">
+        <v>0.1308249171128118</v>
+      </c>
+      <c r="D77">
+        <v>-0.06181068340162367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001426591047182239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01420062256682574</v>
+      </c>
+      <c r="C78">
+        <v>0.09416253621708957</v>
+      </c>
+      <c r="D78">
+        <v>-0.06966466556434898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02416046715861317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03685813591537394</v>
+      </c>
+      <c r="C79">
+        <v>0.1574121517027003</v>
+      </c>
+      <c r="D79">
+        <v>-0.03293583841680949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004818451179464322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01036921538309461</v>
+      </c>
+      <c r="C80">
+        <v>0.04118491150841327</v>
+      </c>
+      <c r="D80">
+        <v>-0.03315294052991496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006531404930745534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01454778480868358</v>
+      </c>
+      <c r="C81">
+        <v>0.125326035677841</v>
+      </c>
+      <c r="D81">
+        <v>-0.05335808825282121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005375893072203718</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01924148445097578</v>
+      </c>
+      <c r="C82">
+        <v>0.1434507359880909</v>
+      </c>
+      <c r="D82">
+        <v>-0.04454758585367204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008807320916150461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009914844830105074</v>
+      </c>
+      <c r="C83">
+        <v>0.05585112547319949</v>
+      </c>
+      <c r="D83">
+        <v>-0.04976653047769262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01249652030196652</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01154593343140177</v>
+      </c>
+      <c r="C84">
+        <v>0.03601501260955343</v>
+      </c>
+      <c r="D84">
+        <v>0.006069623724179972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01497258336040254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02781801689119814</v>
+      </c>
+      <c r="C85">
+        <v>0.1300579270268214</v>
+      </c>
+      <c r="D85">
+        <v>-0.04878657019176807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001256534877488611</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005392979372957298</v>
+      </c>
+      <c r="C86">
+        <v>0.04932284682024098</v>
+      </c>
+      <c r="D86">
+        <v>-0.02202946762521455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005991805775886243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.0100279931154306</v>
+      </c>
+      <c r="C87">
+        <v>0.1300644979505526</v>
+      </c>
+      <c r="D87">
+        <v>-0.07055999194006113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01314142084799262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002978718896803909</v>
+      </c>
+      <c r="C88">
+        <v>0.06833389864115748</v>
+      </c>
+      <c r="D88">
+        <v>-0.01363194119605781</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01524460391075259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001417684857654382</v>
+      </c>
+      <c r="C89">
+        <v>0.15382494061126</v>
+      </c>
+      <c r="D89">
+        <v>0.3449947523850936</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002869508993233652</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007075132958598963</v>
+      </c>
+      <c r="C90">
+        <v>0.1336116734681267</v>
+      </c>
+      <c r="D90">
+        <v>0.3247267693302121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006352466823271628</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01009687489658194</v>
+      </c>
+      <c r="C91">
+        <v>0.1041196543548144</v>
+      </c>
+      <c r="D91">
+        <v>-0.02221968891965447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00871442410344098</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0005498179506024034</v>
+      </c>
+      <c r="C92">
+        <v>0.1421543638289279</v>
+      </c>
+      <c r="D92">
+        <v>0.3304110679034954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0008286235358026992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004912495641910832</v>
+      </c>
+      <c r="C93">
+        <v>0.1140634953988916</v>
+      </c>
+      <c r="D93">
+        <v>0.3146770540542073</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003135307667744092</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02218633001064994</v>
+      </c>
+      <c r="C94">
+        <v>0.1553067391917176</v>
+      </c>
+      <c r="D94">
+        <v>-0.03765121691480261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004907973531043793</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01587277998297729</v>
+      </c>
+      <c r="C95">
+        <v>0.1256692043538408</v>
+      </c>
+      <c r="D95">
+        <v>-0.06256577900871092</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001401373223696993</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03385399943804381</v>
+      </c>
+      <c r="C97">
+        <v>0.1833083913492196</v>
+      </c>
+      <c r="D97">
+        <v>-0.0260128282140752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004124630304019991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03598297091203193</v>
+      </c>
+      <c r="C98">
+        <v>0.2497711367479919</v>
+      </c>
+      <c r="D98">
+        <v>-0.05005571789326782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833675519897009</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827971074149447</v>
+      </c>
+      <c r="C99">
+        <v>-0.110357134904647</v>
+      </c>
+      <c r="D99">
+        <v>0.02955411270337835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001462476598706016</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003101826722194494</v>
+      </c>
+      <c r="C101">
+        <v>0.05004189084116966</v>
+      </c>
+      <c r="D101">
+        <v>-0.007664196306209172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
